--- a/PRO1/step_2/time_series_example/res_line/i_ka.xlsx
+++ b/PRO1/step_2/time_series_example/res_line/i_ka.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0470688029766519</v>
+        <v>0.03540507712086637</v>
       </c>
       <c r="C2">
-        <v>0.04861226950991802</v>
+        <v>0.03583385112736803</v>
       </c>
       <c r="D2">
-        <v>0.01946438027107947</v>
+        <v>0.01402141464290058</v>
       </c>
       <c r="E2">
-        <v>0.01453947013548542</v>
+        <v>0.01048053367314681</v>
       </c>
       <c r="F2">
-        <v>0.006434038038708075</v>
+        <v>0.00454763472194411</v>
       </c>
       <c r="G2">
-        <v>0.0009107642587460858</v>
+        <v>0.0008211480038093579</v>
       </c>
       <c r="H2">
-        <v>0.0166671818141713</v>
+        <v>0.0124107395490786</v>
       </c>
       <c r="I2">
-        <v>0.01011746664050095</v>
+        <v>0.007265020706740614</v>
       </c>
       <c r="J2">
-        <v>0.00376741119715305</v>
+        <v>0.002727088005255859</v>
       </c>
       <c r="K2">
-        <v>0.02385999797772047</v>
+        <v>0.01772361007325905</v>
       </c>
       <c r="L2">
-        <v>0.006525696777652345</v>
+        <v>0.005047756020260097</v>
       </c>
       <c r="M2">
-        <v>0.006192613283914839</v>
+        <v>0.004755228276726628</v>
       </c>
       <c r="N2">
-        <v>0.0001276785702762574</v>
+        <v>0.0001326304169700742</v>
       </c>
       <c r="O2">
-        <v>0.0002603704350470188</v>
+        <v>0.0002705752745744627</v>
       </c>
       <c r="P2">
-        <v>7.316033846602211E-05</v>
+        <v>7.476934253575397E-05</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04502212986450695</v>
+        <v>0.03401701384964446</v>
       </c>
       <c r="C3">
-        <v>0.04656182948714586</v>
+        <v>0.03443041641994726</v>
       </c>
       <c r="D3">
-        <v>0.01865457579148556</v>
+        <v>0.01347751611588389</v>
       </c>
       <c r="E3">
-        <v>0.01393413499831281</v>
+        <v>0.01007412883019543</v>
       </c>
       <c r="F3">
-        <v>0.006173915646520277</v>
+        <v>0.004372277975007375</v>
       </c>
       <c r="G3">
-        <v>0.0008744684187450018</v>
+        <v>0.0008139600790442125</v>
       </c>
       <c r="H3">
-        <v>0.01597872883807531</v>
+        <v>0.01192471531553678</v>
       </c>
       <c r="I3">
-        <v>0.009701883089617683</v>
+        <v>0.006983612564570342</v>
       </c>
       <c r="J3">
-        <v>0.003610422559016211</v>
+        <v>0.002621878831253194</v>
       </c>
       <c r="K3">
-        <v>0.02285635773656381</v>
+        <v>0.01702652241834736</v>
       </c>
       <c r="L3">
-        <v>0.006270190600273668</v>
+        <v>0.004855602225655946</v>
       </c>
       <c r="M3">
-        <v>0.005952221201292445</v>
+        <v>0.004574943569037974</v>
       </c>
       <c r="N3">
-        <v>0.0001280143573541377</v>
+        <v>0.0001327678700972663</v>
       </c>
       <c r="O3">
-        <v>0.0002610693311944846</v>
+        <v>0.0002708650746010651</v>
       </c>
       <c r="P3">
-        <v>7.324964184701308E-05</v>
+        <v>7.479627922389477E-05</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04291925141040254</v>
+        <v>0.03258746408627673</v>
       </c>
       <c r="C4">
-        <v>0.04445433705276621</v>
+        <v>0.0329835990397512</v>
       </c>
       <c r="D4">
-        <v>0.01782212199372088</v>
+        <v>0.01291664320328497</v>
       </c>
       <c r="E4">
-        <v>0.0133118868915785</v>
+        <v>0.009655051198467634</v>
       </c>
       <c r="F4">
-        <v>0.00590650678007906</v>
+        <v>0.004191391461031987</v>
       </c>
       <c r="G4">
-        <v>0.0008371563699342732</v>
+        <v>0.0008075301358946045</v>
       </c>
       <c r="H4">
-        <v>0.01527109692745534</v>
+        <v>0.01142348019846222</v>
       </c>
       <c r="I4">
-        <v>0.009274724635441373</v>
+        <v>0.006693390509579632</v>
       </c>
       <c r="J4">
-        <v>0.003449078239822833</v>
+        <v>0.002513405242585458</v>
       </c>
       <c r="K4">
-        <v>0.02182484792387</v>
+        <v>0.01630784470056582</v>
       </c>
       <c r="L4">
-        <v>0.006006722071306305</v>
+        <v>0.004657107464298835</v>
       </c>
       <c r="M4">
-        <v>0.005704333874747528</v>
+        <v>0.004388701558382033</v>
       </c>
       <c r="N4">
-        <v>0.0001283597303716638</v>
+        <v>0.0001329094553021749</v>
       </c>
       <c r="O4">
-        <v>0.0002617881681936416</v>
+        <v>0.0002711635985913619</v>
       </c>
       <c r="P4">
-        <v>7.334166525822053E-05</v>
+        <v>7.482403112183097E-05</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04290872444374129</v>
+        <v>0.03258029951234027</v>
       </c>
       <c r="C5">
-        <v>0.04444378490378734</v>
+        <v>0.0329763439160197</v>
       </c>
       <c r="D5">
-        <v>0.01781795360616988</v>
+        <v>0.01291383023561428</v>
       </c>
       <c r="E5">
-        <v>0.01330877112313782</v>
+        <v>0.009652949410464642</v>
       </c>
       <c r="F5">
-        <v>0.005905167735028748</v>
+        <v>0.004190484093924781</v>
       </c>
       <c r="G5">
-        <v>0.0008369695317006655</v>
+        <v>0.0008075004431902362</v>
       </c>
       <c r="H5">
-        <v>0.0152675537537049</v>
+        <v>0.01142096620694684</v>
       </c>
       <c r="I5">
-        <v>0.009272585820656347</v>
+        <v>0.006691934853283282</v>
       </c>
       <c r="J5">
-        <v>0.003448270423280741</v>
+        <v>0.00251286126094719</v>
       </c>
       <c r="K5">
-        <v>0.02181968332281541</v>
+        <v>0.01630424073713813</v>
       </c>
       <c r="L5">
-        <v>0.006005400706055826</v>
+        <v>0.004656111057105368</v>
       </c>
       <c r="M5">
-        <v>0.005703090642313704</v>
+        <v>0.004387766635325797</v>
       </c>
       <c r="N5">
-        <v>0.0001283614602860131</v>
+        <v>0.000132910165035408</v>
       </c>
       <c r="O5">
-        <v>0.0002617917686895593</v>
+        <v>0.0002711650949888053</v>
       </c>
       <c r="P5">
-        <v>7.33421266212319E-05</v>
+        <v>7.48241702452436E-05</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04156448294181461</v>
+        <v>0.03166478513973808</v>
       </c>
       <c r="C6">
-        <v>0.04309614204107119</v>
+        <v>0.03204890550852074</v>
       </c>
       <c r="D6">
-        <v>0.01728557031433103</v>
+        <v>0.01255420341206089</v>
       </c>
       <c r="E6">
-        <v>0.01291083130535903</v>
+        <v>0.00938424655996549</v>
       </c>
       <c r="F6">
-        <v>0.00573414249145527</v>
+        <v>0.004074466577196768</v>
       </c>
       <c r="G6">
-        <v>0.0008131063042602901</v>
+        <v>0.0008039171393730354</v>
       </c>
       <c r="H6">
-        <v>0.01481503677214479</v>
+        <v>0.01109955015064104</v>
       </c>
       <c r="I6">
-        <v>0.00899942694532288</v>
+        <v>0.006505826192140397</v>
       </c>
       <c r="J6">
-        <v>0.00334510418061117</v>
+        <v>0.002443319641545748</v>
       </c>
       <c r="K6">
-        <v>0.02116010872742654</v>
+        <v>0.01584352687981163</v>
       </c>
       <c r="L6">
-        <v>0.005836467181402513</v>
+        <v>0.004528649188694622</v>
       </c>
       <c r="M6">
-        <v>0.005544145219680882</v>
+        <v>0.004268167921104635</v>
       </c>
       <c r="N6">
-        <v>0.0001285824439210178</v>
+        <v>0.0001330008664564329</v>
       </c>
       <c r="O6">
-        <v>0.0002622517038936805</v>
+        <v>0.0002713563401128264</v>
       </c>
       <c r="P6">
-        <v>7.340109742478525E-05</v>
+        <v>7.484195125806945E-05</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04261322081254858</v>
+        <v>0.03237915164766021</v>
       </c>
       <c r="C7">
-        <v>0.04414756535734592</v>
+        <v>0.0327726368396581</v>
       </c>
       <c r="D7">
-        <v>0.01770093743731115</v>
+        <v>0.0128348467639222</v>
       </c>
       <c r="E7">
-        <v>0.01322130456204788</v>
+        <v>0.009593934808913768</v>
       </c>
       <c r="F7">
-        <v>0.005867577515878274</v>
+        <v>0.004165006041174957</v>
       </c>
       <c r="G7">
-        <v>0.0008317245369967347</v>
+        <v>0.0008066772334956178</v>
       </c>
       <c r="H7">
-        <v>0.01516808947577176</v>
+        <v>0.01135037689014522</v>
       </c>
       <c r="I7">
-        <v>0.009212544838293667</v>
+        <v>0.006651062024083104</v>
       </c>
       <c r="J7">
-        <v>0.003425593529136021</v>
+        <v>0.002497587372586693</v>
       </c>
       <c r="K7">
-        <v>0.02167470331810192</v>
+        <v>0.01620304927971084</v>
       </c>
       <c r="L7">
-        <v>0.005968298649214573</v>
+        <v>0.004628129771519772</v>
       </c>
       <c r="M7">
-        <v>0.005668182395470359</v>
+        <v>0.004361511862546027</v>
       </c>
       <c r="N7">
-        <v>0.0001284100247390299</v>
+        <v>0.000132930090778057</v>
       </c>
       <c r="O7">
-        <v>0.0002618928466817659</v>
+        <v>0.0002712071082748783</v>
       </c>
       <c r="P7">
-        <v>7.335508033592225E-05</v>
+        <v>7.482807628822703E-05</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04515187028574545</v>
+        <v>0.0341051026190634</v>
       </c>
       <c r="C8">
-        <v>0.04669182880508156</v>
+        <v>0.03451951964294958</v>
       </c>
       <c r="D8">
-        <v>0.01870592117879914</v>
+        <v>0.01351205230309337</v>
       </c>
       <c r="E8">
-        <v>0.01397251557711197</v>
+        <v>0.01009993422138794</v>
       </c>
       <c r="F8">
-        <v>0.006190408899434004</v>
+        <v>0.004383414229349988</v>
       </c>
       <c r="G8">
-        <v>0.0008767697685215466</v>
+        <v>0.0008143888647575469</v>
       </c>
       <c r="H8">
-        <v>0.0160223777484214</v>
+        <v>0.01195557773292726</v>
       </c>
       <c r="I8">
-        <v>0.009728231604653324</v>
+        <v>0.007001482091054076</v>
       </c>
       <c r="J8">
-        <v>0.003620375377535209</v>
+        <v>0.002628558817943106</v>
       </c>
       <c r="K8">
-        <v>0.02291998757367103</v>
+        <v>0.01707078118459958</v>
       </c>
       <c r="L8">
-        <v>0.006286414147885089</v>
+        <v>0.004867813202967424</v>
       </c>
       <c r="M8">
-        <v>0.005967485172718174</v>
+        <v>0.004586400506676822</v>
       </c>
       <c r="N8">
-        <v>0.0001279930613921082</v>
+        <v>0.000132759146690682</v>
       </c>
       <c r="O8">
-        <v>0.0002610250067948702</v>
+        <v>0.0002708466822396267</v>
       </c>
       <c r="P8">
-        <v>7.324397325387669E-05</v>
+        <v>7.479456954233069E-05</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05222296916040779</v>
+        <v>0.0388851216410088</v>
       </c>
       <c r="C9">
-        <v>0.05377333943179829</v>
+        <v>0.03934740180867456</v>
       </c>
       <c r="D9">
-        <v>0.02150226425185849</v>
+        <v>0.01538250856552773</v>
       </c>
       <c r="E9">
-        <v>0.01606287690656408</v>
+        <v>0.01149759299761464</v>
       </c>
       <c r="F9">
-        <v>0.007088613629130513</v>
+        <v>0.004986264331601787</v>
       </c>
       <c r="G9">
-        <v>0.001002102063235913</v>
+        <v>0.0008430766242929212</v>
       </c>
       <c r="H9">
-        <v>0.01840003466230285</v>
+        <v>0.01362688485609792</v>
       </c>
       <c r="I9">
-        <v>0.01116351706219636</v>
+        <v>0.007969147659779508</v>
       </c>
       <c r="J9">
-        <v>0.004162621294464863</v>
+        <v>0.00299044623779553</v>
       </c>
       <c r="K9">
-        <v>0.02638648016412974</v>
+        <v>0.0194686711504203</v>
       </c>
       <c r="L9">
-        <v>0.007165209052070573</v>
+        <v>0.00552721605697084</v>
       </c>
       <c r="M9">
-        <v>0.006794283305412544</v>
+        <v>0.005205045107038376</v>
       </c>
       <c r="N9">
-        <v>0.0001268343753410983</v>
+        <v>0.0001322857531316722</v>
       </c>
       <c r="O9">
-        <v>0.0002586133080594257</v>
+        <v>0.0002698486506098159</v>
       </c>
       <c r="P9">
-        <v>7.293655487286308E-05</v>
+        <v>7.470182366508141E-05</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07780464032166418</v>
+        <v>0.05577242340499992</v>
       </c>
       <c r="C10">
-        <v>0.0793581217827873</v>
+        <v>0.05633581517819149</v>
       </c>
       <c r="D10">
-        <v>0.03159766647280813</v>
+        <v>0.02195595464359144</v>
       </c>
       <c r="E10">
-        <v>0.0236111070201517</v>
+        <v>0.01641016102766725</v>
       </c>
       <c r="F10">
-        <v>0.0103316681000762</v>
+        <v>0.00710239558711752</v>
       </c>
       <c r="G10">
-        <v>0.001454697180345173</v>
+        <v>0.001136721907362658</v>
       </c>
       <c r="H10">
-        <v>0.02699312431422504</v>
+        <v>0.01950032982302446</v>
       </c>
       <c r="I10">
-        <v>0.01635143197430845</v>
+        <v>0.01136961746716368</v>
       </c>
       <c r="J10">
-        <v>0.006123450730150037</v>
+        <v>0.004263644712974804</v>
       </c>
       <c r="K10">
-        <v>0.03891773959191929</v>
+        <v>0.02790586928949208</v>
       </c>
       <c r="L10">
-        <v>0.01025874016093128</v>
+        <v>0.007816024456909907</v>
       </c>
       <c r="M10">
-        <v>0.009704641459882429</v>
+        <v>0.007352028296278591</v>
       </c>
       <c r="N10">
-        <v>0.0001226697405589195</v>
+        <v>0.0001306061694801748</v>
       </c>
       <c r="O10">
-        <v>0.0002499438603158193</v>
+        <v>0.0002663087097181335</v>
       </c>
       <c r="P10">
-        <v>7.18486995467918E-05</v>
+        <v>7.437344766382028E-05</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1018465775200723</v>
+        <v>0.07097979555475448</v>
       </c>
       <c r="C11">
-        <v>0.1033816974592176</v>
+        <v>0.07159133603575979</v>
       </c>
       <c r="D11">
-        <v>0.04106893627525104</v>
+        <v>0.02785250806294568</v>
       </c>
       <c r="E11">
-        <v>0.0306949375364536</v>
+        <v>0.02081760394932533</v>
       </c>
       <c r="F11">
-        <v>0.01337595348961717</v>
+        <v>0.008999363829014609</v>
       </c>
       <c r="G11">
-        <v>0.001879679834364904</v>
+        <v>0.001439216752449084</v>
       </c>
       <c r="H11">
-        <v>0.03507045586832182</v>
+        <v>0.02477181456550188</v>
       </c>
       <c r="I11">
-        <v>0.02122930190920828</v>
+        <v>0.01442166877714789</v>
       </c>
       <c r="J11">
-        <v>0.007967718446518572</v>
+        <v>0.005407368633542399</v>
       </c>
       <c r="K11">
-        <v>0.05069658168614331</v>
+        <v>0.03548434276893464</v>
       </c>
       <c r="L11">
-        <v>0.01304396818014703</v>
+        <v>0.009832463930618433</v>
       </c>
       <c r="M11">
-        <v>0.01232494506931689</v>
+        <v>0.009243333064919331</v>
       </c>
       <c r="N11">
-        <v>0.0001187910705793336</v>
+        <v>0.0001290774704891749</v>
       </c>
       <c r="O11">
-        <v>0.00024186786335785</v>
+        <v>0.000263088082807778</v>
       </c>
       <c r="P11">
-        <v>7.086173727251401E-05</v>
+        <v>7.407583317074739E-05</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1445630803523864</v>
+        <v>0.09624015179128625</v>
       </c>
       <c r="C12">
-        <v>0.1460482773984565</v>
+        <v>0.09689575002608333</v>
       </c>
       <c r="D12">
-        <v>0.0578726622380549</v>
+        <v>0.03762502737107914</v>
       </c>
       <c r="E12">
-        <v>0.04326878249441753</v>
+        <v>0.02812354197237533</v>
       </c>
       <c r="F12">
-        <v>0.01878330259306327</v>
+        <v>0.0121430557410605</v>
       </c>
       <c r="G12">
-        <v>0.00263492205109819</v>
+        <v>0.00194070036354345</v>
       </c>
       <c r="H12">
-        <v>0.04944478686993653</v>
+        <v>0.03351823124706368</v>
       </c>
       <c r="I12">
-        <v>0.02991396395129128</v>
+        <v>0.0194861956460652</v>
       </c>
       <c r="J12">
-        <v>0.01125206774219012</v>
+        <v>0.007306131538235904</v>
       </c>
       <c r="K12">
-        <v>0.07165085857583847</v>
+        <v>0.0480620926075323</v>
       </c>
       <c r="L12">
-        <v>0.01768656120232795</v>
+        <v>0.01309707043188817</v>
       </c>
       <c r="M12">
-        <v>0.01669283008149792</v>
+        <v>0.01230527690686793</v>
       </c>
       <c r="N12">
-        <v>0.0001119903325521978</v>
+        <v>0.0001264982996982896</v>
       </c>
       <c r="O12">
-        <v>0.0002277024144039802</v>
+        <v>0.0002576568392935182</v>
       </c>
       <c r="P12">
-        <v>6.920108477653821E-05</v>
+        <v>7.357751745923984E-05</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1823815370066526</v>
+        <v>0.1165823066336247</v>
       </c>
       <c r="C13">
-        <v>0.183815661061886</v>
+        <v>0.1172577995836523</v>
       </c>
       <c r="D13">
-        <v>0.07272678500016121</v>
+        <v>0.04548292687654381</v>
       </c>
       <c r="E13">
-        <v>0.0543908734554811</v>
+        <v>0.03399932373690097</v>
       </c>
       <c r="F13">
-        <v>0.02357152233654167</v>
+        <v>0.01467148006463798</v>
       </c>
       <c r="G13">
-        <v>0.003304174516562113</v>
+        <v>0.002344227530043829</v>
       </c>
       <c r="H13">
-        <v>0.06220604515906718</v>
+        <v>0.04056167496444099</v>
       </c>
       <c r="I13">
-        <v>0.03762921952666461</v>
+        <v>0.02356531200418523</v>
       </c>
       <c r="J13">
-        <v>0.01417042650923559</v>
+        <v>0.008835878731172921</v>
       </c>
       <c r="K13">
-        <v>0.09024237972408328</v>
+        <v>0.0581912109896449</v>
       </c>
       <c r="L13">
-        <v>0.02144694691186353</v>
+        <v>0.01564954573202625</v>
       </c>
       <c r="M13">
-        <v>0.0202309729749644</v>
+        <v>0.01469933349794792</v>
       </c>
       <c r="N13">
-        <v>0.0001060820902404589</v>
+        <v>0.0001243847627496191</v>
       </c>
       <c r="O13">
-        <v>0.000215389213778999</v>
+        <v>0.0002532081716069528</v>
       </c>
       <c r="P13">
-        <v>6.784216538135422E-05</v>
+        <v>7.317376485180888E-05</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1861137711589816</v>
+        <v>0.1184819269940668</v>
       </c>
       <c r="C14">
-        <v>0.1875427080224551</v>
+        <v>0.1191588506206476</v>
       </c>
       <c r="D14">
-        <v>0.07419152549776467</v>
+        <v>0.04621631121347643</v>
       </c>
       <c r="E14">
-        <v>0.055488005350864</v>
+        <v>0.03454777149648026</v>
       </c>
       <c r="F14">
-        <v>0.0240441596614374</v>
+        <v>0.01490750457640887</v>
       </c>
       <c r="G14">
-        <v>0.00337026368601483</v>
+        <v>0.002381905568620737</v>
       </c>
       <c r="H14">
-        <v>0.06346755518815979</v>
+        <v>0.04121957084340264</v>
       </c>
       <c r="I14">
-        <v>0.03839220732950214</v>
+        <v>0.02394635799962615</v>
       </c>
       <c r="J14">
-        <v>0.01445906229778633</v>
+        <v>0.008978791604727145</v>
       </c>
       <c r="K14">
-        <v>0.09207955316968565</v>
+        <v>0.05913728854495007</v>
       </c>
       <c r="L14">
-        <v>0.02179926835827958</v>
+        <v>0.01588436013472833</v>
       </c>
       <c r="M14">
-        <v>0.02056248574319246</v>
+        <v>0.01491957743760999</v>
       </c>
       <c r="N14">
-        <v>0.0001055054861789765</v>
+        <v>0.0001241857695950595</v>
       </c>
       <c r="O14">
-        <v>0.0002141871319510236</v>
+        <v>0.0002527894066084535</v>
       </c>
       <c r="P14">
-        <v>6.771422528692901E-05</v>
+        <v>7.313600050748918E-05</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1830721190082468</v>
+        <v>0.1169352863595745</v>
       </c>
       <c r="C15">
-        <v>0.1845052845252577</v>
+        <v>0.1176110497076968</v>
       </c>
       <c r="D15">
-        <v>0.07299782512573176</v>
+        <v>0.04561920629316017</v>
       </c>
       <c r="E15">
-        <v>0.05459388444151395</v>
+        <v>0.03410123701612543</v>
       </c>
       <c r="F15">
-        <v>0.02365897375323873</v>
+        <v>0.01471533812845218</v>
       </c>
       <c r="G15">
-        <v>0.003316402492842178</v>
+        <v>0.002351228736517779</v>
       </c>
       <c r="H15">
-        <v>0.06243943387664485</v>
+        <v>0.04068391992307852</v>
       </c>
       <c r="I15">
-        <v>0.03777037365637542</v>
+        <v>0.02363611446776955</v>
       </c>
       <c r="J15">
-        <v>0.01422382425489443</v>
+        <v>0.008862433336743638</v>
       </c>
       <c r="K15">
-        <v>0.0905822803676867</v>
+        <v>0.05836700423389631</v>
       </c>
       <c r="L15">
-        <v>0.0215123979211557</v>
+        <v>0.01569322428123715</v>
       </c>
       <c r="M15">
-        <v>0.02029255815301627</v>
+        <v>0.0147403017034359</v>
       </c>
       <c r="N15">
-        <v>0.0001059753078250326</v>
+        <v>0.0001243478073035331</v>
       </c>
       <c r="O15">
-        <v>0.0002151666036969161</v>
+        <v>0.0002531304008171825</v>
       </c>
       <c r="P15">
-        <v>6.78184057866645E-05</v>
+        <v>7.3166748105419E-05</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1829811263598532</v>
+        <v>0.1168888153599138</v>
       </c>
       <c r="C16">
-        <v>0.1844144182208656</v>
+        <v>0.1175645432317073</v>
       </c>
       <c r="D16">
-        <v>0.07296211269893194</v>
+        <v>0.04560126476842876</v>
       </c>
       <c r="E16">
-        <v>0.05456713543334532</v>
+        <v>0.03408781985995719</v>
       </c>
       <c r="F16">
-        <v>0.02364745092081896</v>
+        <v>0.01470956408866579</v>
       </c>
       <c r="G16">
-        <v>0.003314791291533233</v>
+        <v>0.002350307004280419</v>
       </c>
       <c r="H16">
-        <v>0.06240868127198122</v>
+        <v>0.04066782588713558</v>
       </c>
       <c r="I16">
-        <v>0.03775177428816499</v>
+        <v>0.023626793029757</v>
       </c>
       <c r="J16">
-        <v>0.01421678821725323</v>
+        <v>0.008858937308858918</v>
       </c>
       <c r="K16">
-        <v>0.09053749340829517</v>
+        <v>0.05834386037000228</v>
       </c>
       <c r="L16">
-        <v>0.02150378065623166</v>
+        <v>0.01568747505513242</v>
       </c>
       <c r="M16">
-        <v>0.02028444985767464</v>
+        <v>0.01473490922740419</v>
       </c>
       <c r="N16">
-        <v>0.0001059893753517603</v>
+        <v>0.0001243526731625177</v>
       </c>
       <c r="O16">
-        <v>0.0002151959305081709</v>
+        <v>0.0002531406407116288</v>
       </c>
       <c r="P16">
-        <v>6.782153417771664E-05</v>
+        <v>7.316767189576014E-05</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1825863796819383</v>
+        <v>0.1166870789443778</v>
       </c>
       <c r="C17">
-        <v>0.1840202194812659</v>
+        <v>0.1173626523756899</v>
       </c>
       <c r="D17">
-        <v>0.0728071825871945</v>
+        <v>0.04552337790489532</v>
       </c>
       <c r="E17">
-        <v>0.05445109155331427</v>
+        <v>0.03402957402925173</v>
       </c>
       <c r="F17">
-        <v>0.02359746239068505</v>
+        <v>0.01468449816917498</v>
       </c>
       <c r="G17">
-        <v>0.003307801589729483</v>
+        <v>0.002346305646770559</v>
       </c>
       <c r="H17">
-        <v>0.06227527224014894</v>
+        <v>0.04059795989359239</v>
       </c>
       <c r="I17">
-        <v>0.03767108805233826</v>
+        <v>0.02358632767427676</v>
       </c>
       <c r="J17">
-        <v>0.01418626509815171</v>
+        <v>0.008843760693035937</v>
       </c>
       <c r="K17">
-        <v>0.09034320052743139</v>
+        <v>0.0582433902311941</v>
       </c>
       <c r="L17">
-        <v>0.02146637348652529</v>
+        <v>0.01566251270899302</v>
       </c>
       <c r="M17">
-        <v>0.02024925211975387</v>
+        <v>0.01471149584512448</v>
       </c>
       <c r="N17">
-        <v>0.0001060504117647223</v>
+        <v>0.0001243737945183735</v>
       </c>
       <c r="O17">
-        <v>0.0002153231736726783</v>
+        <v>0.0002531850895070926</v>
       </c>
       <c r="P17">
-        <v>6.783511365045612E-05</v>
+        <v>7.317168214687463E-05</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.146177863324927</v>
+        <v>0.09714856810461667</v>
       </c>
       <c r="C18">
-        <v>0.1476609607743393</v>
+        <v>0.09780527190813769</v>
       </c>
       <c r="D18">
-        <v>0.05850734383379423</v>
+        <v>0.03797612614607086</v>
       </c>
       <c r="E18">
-        <v>0.04374385947205988</v>
+        <v>0.02838605452204254</v>
       </c>
       <c r="F18">
-        <v>0.01898772182387468</v>
+        <v>0.01225601189198586</v>
       </c>
       <c r="G18">
-        <v>0.00266348386430252</v>
+        <v>0.001958723938072655</v>
       </c>
       <c r="H18">
-        <v>0.04998892662717862</v>
+        <v>0.03383272680699635</v>
       </c>
       <c r="I18">
-        <v>0.03024283625593206</v>
+        <v>0.01966831774895233</v>
       </c>
       <c r="J18">
-        <v>0.01137645523874562</v>
+        <v>0.007374424434731142</v>
       </c>
       <c r="K18">
-        <v>0.07244383992777231</v>
+        <v>0.0485143742177678</v>
       </c>
       <c r="L18">
-        <v>0.01785403215802967</v>
+        <v>0.0132125222056191</v>
       </c>
       <c r="M18">
-        <v>0.01685039784026635</v>
+        <v>0.0124135620458592</v>
       </c>
       <c r="N18">
-        <v>0.0001117357556614274</v>
+        <v>0.0001264046041594395</v>
       </c>
       <c r="O18">
-        <v>0.0002271719992893857</v>
+        <v>0.0002574595880751204</v>
       </c>
       <c r="P18">
-        <v>6.914082450231235E-05</v>
+        <v>7.355952263797345E-05</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.09002475104856637</v>
+        <v>0.06358693030751061</v>
       </c>
       <c r="C19">
-        <v>0.09157035522030432</v>
+        <v>0.06417814388425326</v>
       </c>
       <c r="D19">
-        <v>0.03641322080031306</v>
+        <v>0.02498772449986108</v>
       </c>
       <c r="E19">
-        <v>0.02721251591518309</v>
+        <v>0.01867621023538239</v>
       </c>
       <c r="F19">
-        <v>0.01187923029414804</v>
+        <v>0.008077800407460162</v>
       </c>
       <c r="G19">
-        <v>0.001670720026268242</v>
+        <v>0.001292252956499224</v>
       </c>
       <c r="H19">
-        <v>0.03109792185352727</v>
+        <v>0.02221024209447118</v>
       </c>
       <c r="I19">
-        <v>0.01883012041827607</v>
+        <v>0.01293856078750984</v>
       </c>
       <c r="J19">
-        <v>0.007060563637270795</v>
+        <v>0.004851516561084928</v>
       </c>
       <c r="K19">
-        <v>0.04490383268346552</v>
+        <v>0.03180135532843185</v>
       </c>
       <c r="L19">
-        <v>0.01168941542426204</v>
+        <v>0.008857118391526288</v>
       </c>
       <c r="M19">
-        <v>0.01105059401368831</v>
+        <v>0.008328525145689958</v>
       </c>
       <c r="N19">
-        <v>0.000120693990077832</v>
+        <v>0.0001298227970894137</v>
       </c>
       <c r="O19">
-        <v>0.0002458302799354827</v>
+        <v>0.0002646581719813178</v>
       </c>
       <c r="P19">
-        <v>7.134261503652065E-05</v>
+        <v>7.422076065857087E-05</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.07659200975847358</v>
+        <v>0.05498768686643431</v>
       </c>
       <c r="C20">
-        <v>0.07814605152778688</v>
+        <v>0.05554781904123471</v>
       </c>
       <c r="D20">
-        <v>0.03111961595465027</v>
+        <v>0.02165124727016972</v>
       </c>
       <c r="E20">
-        <v>0.02325361829874433</v>
+        <v>0.01618242198572958</v>
       </c>
       <c r="F20">
-        <v>0.01017806505556506</v>
+        <v>0.007004350917553124</v>
       </c>
       <c r="G20">
-        <v>0.001433257678478222</v>
+        <v>0.001121089384921646</v>
       </c>
       <c r="H20">
-        <v>0.02658585027175546</v>
+        <v>0.01922801835366192</v>
       </c>
       <c r="I20">
-        <v>0.01610551818580877</v>
+        <v>0.01121196089323587</v>
       </c>
       <c r="J20">
-        <v>0.006030485598393093</v>
+        <v>0.004204582760120304</v>
       </c>
       <c r="K20">
-        <v>0.03832378966972809</v>
+        <v>0.02751448485487719</v>
       </c>
       <c r="L20">
-        <v>0.01011510171638711</v>
+        <v>0.007710884914283602</v>
       </c>
       <c r="M20">
-        <v>0.009569509470392859</v>
+        <v>0.007253410527789075</v>
       </c>
       <c r="N20">
-        <v>0.000122866274078709</v>
+        <v>0.0001306845947541695</v>
       </c>
       <c r="O20">
-        <v>0.0002503530239930902</v>
+        <v>0.0002664739666189476</v>
       </c>
       <c r="P20">
-        <v>7.189940624711934E-05</v>
+        <v>7.438875198794979E-05</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.06269941873227297</v>
+        <v>0.04588270283292802</v>
       </c>
       <c r="C21">
-        <v>0.06425572357048849</v>
+        <v>0.04639635858782244</v>
       </c>
       <c r="D21">
-        <v>0.02563970489120556</v>
+        <v>0.01811125255994721</v>
       </c>
       <c r="E21">
-        <v>0.01915610418052018</v>
+        <v>0.01353676083842986</v>
       </c>
       <c r="F21">
-        <v>0.008417586308256538</v>
+        <v>0.005865032563401246</v>
       </c>
       <c r="G21">
-        <v>0.001187556374778669</v>
+        <v>0.0009394441489949246</v>
       </c>
       <c r="H21">
-        <v>0.02191990482007158</v>
+        <v>0.01606486262918456</v>
       </c>
       <c r="I21">
-        <v>0.01328842504305158</v>
+        <v>0.009380641791503242</v>
       </c>
       <c r="J21">
-        <v>0.004965631572935029</v>
+        <v>0.003518723830470233</v>
       </c>
       <c r="K21">
-        <v>0.03151921593781232</v>
+        <v>0.02296941490921975</v>
       </c>
       <c r="L21">
-        <v>0.008448182293923646</v>
+        <v>0.006482628967784204</v>
       </c>
       <c r="M21">
-        <v>0.008001303049934572</v>
+        <v>0.006101303390602164</v>
       </c>
       <c r="N21">
-        <v>0.0001251240160983629</v>
+        <v>0.0001315916255694523</v>
       </c>
       <c r="O21">
-        <v>0.000255053108533823</v>
+        <v>0.0002683854946627155</v>
       </c>
       <c r="P21">
-        <v>7.248646481419685E-05</v>
+        <v>7.456597015184628E-05</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0576859484087503</v>
+        <v>0.0425473678308479</v>
       </c>
       <c r="C22">
-        <v>0.05924051097865713</v>
+        <v>0.0430387415391524</v>
       </c>
       <c r="D22">
-        <v>0.02366042174781535</v>
+        <v>0.01681174717413628</v>
       </c>
       <c r="E22">
-        <v>0.01767630407438708</v>
+        <v>0.01256562805038713</v>
       </c>
       <c r="F22">
-        <v>0.007781815605323403</v>
+        <v>0.005446619159679404</v>
       </c>
       <c r="G22">
-        <v>0.001098834077585363</v>
+        <v>0.0008727391511362756</v>
       </c>
       <c r="H22">
-        <v>0.02023575417855</v>
+        <v>0.01490382903775905</v>
       </c>
       <c r="I22">
-        <v>0.01227169979741439</v>
+        <v>0.008708454155503606</v>
       </c>
       <c r="J22">
-        <v>0.004581380191068052</v>
+        <v>0.003267096617085087</v>
       </c>
       <c r="K22">
-        <v>0.02906326416404684</v>
+        <v>0.02130192650161822</v>
       </c>
       <c r="L22">
-        <v>0.007837018800859781</v>
+        <v>0.006028586307462005</v>
       </c>
       <c r="M22">
-        <v>0.007426325415816815</v>
+        <v>0.005675384403890492</v>
       </c>
       <c r="N22">
-        <v>0.00012594162295049</v>
+        <v>0.0001319227240849502</v>
       </c>
       <c r="O22">
-        <v>0.0002567550360178118</v>
+        <v>0.0002690833846714129</v>
       </c>
       <c r="P22">
-        <v>7.270106200269265E-05</v>
+        <v>7.463074982350607E-05</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.05600071750207679</v>
+        <v>0.04142065058592236</v>
       </c>
       <c r="C23">
-        <v>0.0575542734842605</v>
+        <v>0.04190364642140498</v>
       </c>
       <c r="D23">
-        <v>0.02299484152303731</v>
+        <v>0.01637232259318071</v>
       </c>
       <c r="E23">
-        <v>0.01717870780395786</v>
+        <v>0.01223725115972361</v>
       </c>
       <c r="F23">
-        <v>0.007568029134094083</v>
+        <v>0.005305102803397937</v>
       </c>
       <c r="G23">
-        <v>0.001069000990385324</v>
+        <v>0.0008623630221775146</v>
       </c>
       <c r="H23">
-        <v>0.01966954599494162</v>
+        <v>0.01451123156543216</v>
       </c>
       <c r="I23">
-        <v>0.01192988799433355</v>
+        <v>0.008481155508359534</v>
       </c>
       <c r="J23">
-        <v>0.004452209708540246</v>
+        <v>0.003182028306808473</v>
       </c>
       <c r="K23">
-        <v>0.02823761176526141</v>
+        <v>0.02073820290599441</v>
       </c>
       <c r="L23">
-        <v>0.007630431274680551</v>
+        <v>0.005874663033061151</v>
       </c>
       <c r="M23">
-        <v>0.007231967996960916</v>
+        <v>0.005530990824566933</v>
       </c>
       <c r="N23">
-        <v>0.0001262168105501399</v>
+        <v>0.0001320344625183943</v>
       </c>
       <c r="O23">
-        <v>0.0002573278500386473</v>
+        <v>0.0002693189213219833</v>
       </c>
       <c r="P23">
-        <v>7.277352266048503E-05</v>
+        <v>7.465262098589562E-05</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.05186396792999552</v>
+        <v>0.03864348330229709</v>
       </c>
       <c r="C24">
-        <v>0.05341396083563429</v>
+        <v>0.03910364063973885</v>
       </c>
       <c r="D24">
-        <v>0.02136037982162589</v>
+        <v>0.01528810306406663</v>
       </c>
       <c r="E24">
-        <v>0.01595680881548816</v>
+        <v>0.01142704800000152</v>
       </c>
       <c r="F24">
-        <v>0.007043040435592293</v>
+        <v>0.004955848840231696</v>
       </c>
       <c r="G24">
-        <v>0.0009957427730206642</v>
+        <v>0.0008413800854486248</v>
       </c>
       <c r="H24">
-        <v>0.01827937042609757</v>
+        <v>0.01354253681195813</v>
       </c>
       <c r="I24">
-        <v>0.01109067618875187</v>
+        <v>0.007920312398252085</v>
       </c>
       <c r="J24">
-        <v>0.004135098726237082</v>
+        <v>0.002972176405965996</v>
       </c>
       <c r="K24">
-        <v>0.02621054166822224</v>
+        <v>0.01934760748882601</v>
       </c>
       <c r="L24">
-        <v>0.007120845375190433</v>
+        <v>0.005494024216244434</v>
       </c>
       <c r="M24">
-        <v>0.006752545280879037</v>
+        <v>0.0051739064996842</v>
       </c>
       <c r="N24">
-        <v>0.0001268931134634727</v>
+        <v>0.0001323096917045543</v>
       </c>
       <c r="O24">
-        <v>0.0002587355691954332</v>
+        <v>0.0002698991159107034</v>
       </c>
       <c r="P24">
-        <v>7.295209119402545E-05</v>
+        <v>7.470651196141434E-05</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.05002162629371781</v>
+        <v>0.03740161705308433</v>
       </c>
       <c r="C25">
-        <v>0.05156945364306618</v>
+        <v>0.03785041137619461</v>
       </c>
       <c r="D25">
-        <v>0.02063211683063282</v>
+        <v>0.0148026906560727</v>
       </c>
       <c r="E25">
-        <v>0.01541239134612599</v>
+        <v>0.01106432507315448</v>
       </c>
       <c r="F25">
-        <v>0.006809121975570014</v>
+        <v>0.004799441645103451</v>
       </c>
       <c r="G25">
-        <v>0.000963102055834849</v>
+        <v>0.0008330635736125719</v>
       </c>
       <c r="H25">
-        <v>0.01766006731853419</v>
+        <v>0.0131088302139952</v>
       </c>
       <c r="I25">
-        <v>0.01071682647497735</v>
+        <v>0.007669206222119009</v>
       </c>
       <c r="J25">
-        <v>0.003993846865977633</v>
+        <v>0.002878244570415316</v>
       </c>
       <c r="K25">
-        <v>0.02530757044026932</v>
+        <v>0.01872518430451818</v>
       </c>
       <c r="L25">
-        <v>0.006892755416180435</v>
+        <v>0.005323210482347907</v>
       </c>
       <c r="M25">
-        <v>0.006537953695717209</v>
+        <v>0.005013656777763756</v>
       </c>
       <c r="N25">
-        <v>0.0001271946924483605</v>
+        <v>0.0001324327010060668</v>
       </c>
       <c r="O25">
-        <v>0.0002593632889348694</v>
+        <v>0.0002701584389750736</v>
       </c>
       <c r="P25">
-        <v>7.303194038881974E-05</v>
+        <v>7.473060587463919E-05</v>
       </c>
     </row>
   </sheetData>
